--- a/2012-2.xlsx
+++ b/2012-2.xlsx
@@ -137,6 +137,16 @@
             <charset val="1"/>
           </rPr>
           <t>метеорологическая дальность видимости [км]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1327,7 +1337,7 @@
   <dimension ref="A1:K1393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
